--- a/Tablet/Visualisation/Action15/Results.xlsx
+++ b/Tablet/Visualisation/Action15/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Instagram\Tablet\Consumo\Cotidiano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\Tablet\Visualisation\Action15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB37B8F9-8B24-4F71-9CF6-FF2B2A2F8DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58670A16-6A3B-4426-8A8F-5FF24F5DF527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabla de pruebas" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabla total" sheetId="2" r:id="rId2"/>
+    <sheet name="Measurements table" sheetId="1" r:id="rId1"/>
+    <sheet name="Total table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -231,12 +231,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -295,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -401,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -543,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,18 +552,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +573,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -582,7 +581,7 @@
         <v>128682</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -590,7 +589,7 @@
         <v>128.68199999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -610,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -630,7 +629,7 @@
         <v>0.94972000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -650,7 +649,7 @@
         <v>4.21028</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -670,7 +669,7 @@
         <v>3.2605599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -690,7 +689,7 @@
         <v>1.9457216796875001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -710,7 +709,7 @@
         <v>1.4316225</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -730,7 +729,7 @@
         <v>2.1849949999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -750,7 +749,7 @@
         <v>0.75337249999999978</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -770,7 +769,7 @@
         <v>0.73154756123021381</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -790,7 +789,7 @@
         <v>0.53516183434187348</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -810,7 +809,7 @@
         <v>1.699675</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -830,7 +829,7 @@
         <v>1.8260889320388349</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -850,7 +849,7 @@
         <v>2.2068100000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -870,7 +869,7 @@
         <v>1.8349076030938452</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -890,7 +889,7 @@
         <v>0.33485500000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -910,7 +909,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -920,7 +919,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -928,7 +927,7 @@
         <v>130689</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -936,7 +935,7 @@
         <v>130.68899999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -956,7 +955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -976,7 +975,7 @@
         <v>0.91234000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -996,7 +995,7 @@
         <v>3.8924799999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>2.98014</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1035,7 @@
         <v>1.8806916538461538</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1056,7 +1055,7 @@
         <v>1.3888149999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>2.2324074999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>0.84359249999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>0.69611909963926588</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>0.48458180088258224</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>1.657</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>1.8001937980769231</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>2.0991950000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>1.7680892587460446</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>0.31743500000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1256,7 +1255,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1266,7 +1265,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>129185</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>129.185</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>1.0157700000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -1342,7 +1341,7 @@
         <v>3.2676799999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1362,7 +1361,7 @@
         <v>2.2519099999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>1.6605789105058366</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1402,7 +1401,7 @@
         <v>1.4098649999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>1.74688</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1442,7 +1441,7 @@
         <v>0.33701500000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1462,7 +1461,7 @@
         <v>0.38014426287664421</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>0.1445096605980272</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>1.6048800000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>1.6038626086956522</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>1.7109999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1561,7 @@
         <v>1.6244157479689159</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>0.16121000000000008</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -1602,7 +1601,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -1612,7 +1611,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
@@ -1620,7 +1619,7 @@
         <v>130186</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>130.18600000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1668,7 +1667,7 @@
         <v>1.0001199999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>3.5330499999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>2.5329299999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>1.6765990347490347</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>13</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>1.40981</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>1.78644</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1787,7 @@
         <v>0.37663000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>0.41828165104323223</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
@@ -1828,7 +1827,7 @@
         <v>0.17495953959945232</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>18</v>
       </c>
@@ -1848,7 +1847,7 @@
         <v>1.5463499999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>19</v>
       </c>
@@ -1868,7 +1867,7 @@
         <v>1.6058432850241546</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>20</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>1.8146099999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>21</v>
       </c>
@@ -1908,7 +1907,7 @@
         <v>1.6337008152459049</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>22</v>
       </c>
@@ -1928,7 +1927,7 @@
         <v>0.18844999999999978</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -1958,7 +1957,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>128171</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>128.17099999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1994,7 +1993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2014,7 +2013,7 @@
         <v>1.0506800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>3.7781899999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -2054,7 +2053,7 @@
         <v>2.7275099999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -2074,7 +2073,7 @@
         <v>1.8883452549019608</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>13</v>
       </c>
@@ -2094,7 +2093,7 @@
         <v>1.6005</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>14</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>2.1051000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>15</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>0.50460000000000016</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -2154,7 +2153,7 @@
         <v>0.49533846333640014</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>17</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>0.24536019326046624</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>18</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>1.7133499999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>19</v>
       </c>
@@ -2214,7 +2213,7 @@
         <v>1.816094048780488</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>20</v>
       </c>
@@ -2234,7 +2233,7 @@
         <v>2.0596199999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>1.8337341432663388</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>22</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>0.1926699999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -2304,7 +2303,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>128169</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>128.16900000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -2360,7 +2359,7 @@
         <v>1.07931</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>3.4806300000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>2.4013200000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>1.5936070196078431</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>13</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>1.3666700000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>14</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>1.6296600000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>0.26299000000000006</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -2500,7 +2499,7 @@
         <v>0.38317721935113142</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>17</v>
       </c>
@@ -2520,7 +2519,7 @@
         <v>0.14682478142966507</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>18</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>1.4910099999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>1.5189849268292683</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>20</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>1.6640649999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>21</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>1.5590572675552328</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>0.12934999999999985</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>23</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>29</v>
       </c>
@@ -2650,7 +2649,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>1</v>
       </c>
@@ -2658,7 +2657,7 @@
         <v>128178</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -2666,7 +2665,7 @@
         <v>128.178</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>9</v>
       </c>
@@ -2706,7 +2705,7 @@
         <v>1.0245299999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>3.8084799999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>2.7839499999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
@@ -2766,7 +2765,7 @@
         <v>1.9421273333333333</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>13</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>1.5331999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>14</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v>2.1457899999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>15</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>0.61258999999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>0.59717787025342794</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>17</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>0.35662140872041997</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>18</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>1.74637</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>19</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>1.8554919999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>2.2249850000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>21</v>
       </c>
@@ -2946,7 +2945,7 @@
         <v>1.8647716871144806</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>22</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>0.23849999999999993</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>23</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>30</v>
       </c>
@@ -2996,7 +2995,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>129176</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -3012,7 +3011,7 @@
         <v>129.17599999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>1.18981</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>10</v>
       </c>
@@ -3072,7 +3071,7 @@
         <v>3.3252700000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>2.1354600000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>1.6010110505836577</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>13</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>1.35822</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>14</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>1.70505</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>15</v>
       </c>
@@ -3172,7 +3171,7 @@
         <v>0.34682999999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>16</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>0.36541502948817678</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>17</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>0.1335281437758451</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>18</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>1.5200499999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>19</v>
       </c>
@@ -3252,7 +3251,7 @@
         <v>1.5386505797101449</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>20</v>
       </c>
@@ -3272,7 +3271,7 @@
         <v>1.6390299999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>21</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>1.5675767133339356</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>22</v>
       </c>
@@ -3312,7 +3311,7 @@
         <v>0.17436000000000007</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>23</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>31</v>
       </c>
@@ -3342,7 +3341,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>1</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>128679</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>2</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>128.679</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -3378,7 +3377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>9</v>
       </c>
@@ -3398,7 +3397,7 @@
         <v>0.97448999999999997</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>10</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>4.1959400000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>11</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>3.2214500000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>12</v>
       </c>
@@ -3458,7 +3457,7 @@
         <v>1.9266085156249999</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>13</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>1.4688675</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>14</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>2.275385</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>15</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>0.8065175</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>0.6511806802592397</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>17</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>0.42403627834288615</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>18</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>1.6913849999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>19</v>
       </c>
@@ -3598,7 +3597,7 @@
         <v>1.8409988834951456</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>20</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>2.0971550000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>21</v>
       </c>
@@ -3638,7 +3637,7 @@
         <v>1.832411350489443</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>22</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>0.30613999999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>23</v>
       </c>
@@ -3678,7 +3677,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>32</v>
       </c>
@@ -3688,7 +3687,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>1</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>128175</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>2</v>
       </c>
@@ -3704,7 +3703,7 @@
         <v>128.17500000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>9</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>1.1428100000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>10</v>
       </c>
@@ -3764,7 +3763,7 @@
         <v>3.9068499999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>2.7640399999999996</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>12</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>1.6836740784313724</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>13</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>1.3416300000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>14</v>
       </c>
@@ -3844,7 +3843,7 @@
         <v>1.7300899999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>15</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>0.38845999999999981</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>16</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>0.53365800208080449</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>17</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>0.28479086318487595</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>18</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>1.50315</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>19</v>
       </c>
@@ -3944,7 +3943,7 @@
         <v>1.57091</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>20</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>1.8798799999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>21</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>1.6206970328368522</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>22</v>
       </c>
@@ -4004,7 +4003,7 @@
         <v>0.17734000000000005</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>23</v>
       </c>
@@ -4031,28 +4030,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4075,7 +4074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>0.91234000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -4115,7 +4114,7 @@
         <v>4.21028</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4135,7 +4134,7 @@
         <v>3.2979400000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v>1.7798964531271693</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>1.43092</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>1.95417975</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>0.52325975000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>0.14837326313875213</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -4264,7 +4263,7 @@
         <v>2.2014625214441384E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -4286,9 +4285,8 @@
       <c r="G12">
         <v>1.6173219999999999</v>
       </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -4311,7 +4309,7 @@
         <v>1.7824544789970436</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>1.7733663651355789</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -4357,7 +4355,7 @@
         <v>1.7743010974198621</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -4377,7 +4375,7 @@
         <v>0.13301480255958165</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -4397,7 +4395,7 @@
         <v>229.48026980523281</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -4417,7 +4415,7 @@
         <v>210.27546326000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -4440,7 +4438,7 @@
         <v>204.25101809611766</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -4463,7 +4461,7 @@
         <v>250.37935718554687</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
@@ -4486,7 +4484,7 @@
         <v>19.047806627866244</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24">
         <f>G17-(G3*B6)</f>
         <v>111.8531859452328</v>

--- a/Tablet/Visualisation/Action15/Results.xlsx
+++ b/Tablet/Visualisation/Action15/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\Tablet\Visualisation\Action15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58670A16-6A3B-4426-8A8F-5FF24F5DF527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93EA877-E4CA-463B-8368-5865A5D7D326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements table" sheetId="1" r:id="rId1"/>
@@ -168,19 +168,19 @@
     <t>GeometricMean (w) (Time in s)</t>
   </si>
   <si>
-    <t>Mean - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Median - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Min Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>Max Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>SD Measurement Consumption(w/s) (Time in s)</t>
+    <t>Mean - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Median - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Min Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>Max Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>SD Measurement Consumption(w*s) (Time in s)</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4032,8 +4032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
